--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.88772733333334</v>
+        <v>44.5353</v>
       </c>
       <c r="H2">
-        <v>140.663182</v>
+        <v>133.6059</v>
       </c>
       <c r="I2">
-        <v>0.4281561666633809</v>
+        <v>0.4114857541591758</v>
       </c>
       <c r="J2">
-        <v>0.4281561666633809</v>
+        <v>0.4114857541591758</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N2">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O2">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P2">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q2">
-        <v>15.75347929263533</v>
+        <v>21.8688066983</v>
       </c>
       <c r="R2">
-        <v>141.781313633718</v>
+        <v>196.8192602847</v>
       </c>
       <c r="S2">
-        <v>0.2117428075193342</v>
+        <v>0.3227737206727372</v>
       </c>
       <c r="T2">
-        <v>0.2117428075193342</v>
+        <v>0.3227737206727372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.88772733333334</v>
+        <v>44.5353</v>
       </c>
       <c r="H3">
-        <v>140.663182</v>
+        <v>133.6059</v>
       </c>
       <c r="I3">
-        <v>0.4281561666633809</v>
+        <v>0.4114857541591758</v>
       </c>
       <c r="J3">
-        <v>0.4281561666633809</v>
+        <v>0.4114857541591758</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N3">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O3">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P3">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q3">
-        <v>16.10096423990267</v>
+        <v>6.010484088</v>
       </c>
       <c r="R3">
-        <v>144.908678159124</v>
+        <v>54.094356792</v>
       </c>
       <c r="S3">
-        <v>0.2164133591440467</v>
+        <v>0.08871203348643864</v>
       </c>
       <c r="T3">
-        <v>0.2164133591440467</v>
+        <v>0.08871203348643865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>163.686207</v>
       </c>
       <c r="I4">
-        <v>0.4982345623660686</v>
+        <v>0.5041285028045166</v>
       </c>
       <c r="J4">
-        <v>0.4982345623660687</v>
+        <v>0.5041285028045166</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N4">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O4">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P4">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q4">
-        <v>18.331927628827</v>
+        <v>26.79239479739234</v>
       </c>
       <c r="R4">
-        <v>164.987348659443</v>
+        <v>241.131553176531</v>
       </c>
       <c r="S4">
-        <v>0.246399779455941</v>
+        <v>0.3954436597201009</v>
       </c>
       <c r="T4">
-        <v>0.246399779455941</v>
+        <v>0.3954436597201009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>163.686207</v>
       </c>
       <c r="I5">
-        <v>0.4982345623660686</v>
+        <v>0.5041285028045166</v>
       </c>
       <c r="J5">
-        <v>0.4982345623660687</v>
+        <v>0.5041285028045166</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N5">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O5">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P5">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q5">
-        <v>18.736287122186</v>
+        <v>7.36369683224</v>
       </c>
       <c r="R5">
-        <v>168.626584099674</v>
+        <v>66.27327149016</v>
       </c>
       <c r="S5">
-        <v>0.2518347829101276</v>
+        <v>0.1086848430844156</v>
       </c>
       <c r="T5">
-        <v>0.2518347829101276</v>
+        <v>0.1086848430844156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7240593333333333</v>
+        <v>0.5010436666666667</v>
       </c>
       <c r="H6">
-        <v>2.172178</v>
+        <v>1.503131</v>
       </c>
       <c r="I6">
-        <v>0.006611761461435795</v>
+        <v>0.004629413769414645</v>
       </c>
       <c r="J6">
-        <v>0.006611761461435796</v>
+        <v>0.004629413769414645</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N6">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O6">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P6">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q6">
-        <v>0.2432716269913333</v>
+        <v>0.2460346532692222</v>
       </c>
       <c r="R6">
-        <v>2.189444642922</v>
+        <v>2.214311879423</v>
       </c>
       <c r="S6">
-        <v>0.003269818452931999</v>
+        <v>0.003631360482797033</v>
       </c>
       <c r="T6">
-        <v>0.003269818452931999</v>
+        <v>0.003631360482797033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7240593333333333</v>
+        <v>0.5010436666666667</v>
       </c>
       <c r="H7">
-        <v>2.172178</v>
+        <v>1.503131</v>
       </c>
       <c r="I7">
-        <v>0.006611761461435795</v>
+        <v>0.004629413769414645</v>
       </c>
       <c r="J7">
-        <v>0.006611761461435796</v>
+        <v>0.004629413769414645</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N7">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O7">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P7">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q7">
-        <v>0.2486376307106666</v>
+        <v>0.06762085325333334</v>
       </c>
       <c r="R7">
-        <v>2.237738676395999</v>
+        <v>0.60858767928</v>
       </c>
       <c r="S7">
-        <v>0.003341943008503796</v>
+        <v>0.0009980532866176119</v>
       </c>
       <c r="T7">
-        <v>0.003341943008503796</v>
+        <v>0.0009980532866176119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.299658999999999</v>
+        <v>7.825717999999999</v>
       </c>
       <c r="H8">
-        <v>18.898977</v>
+        <v>23.477154</v>
       </c>
       <c r="I8">
-        <v>0.0575254549991582</v>
+        <v>0.07230604650843346</v>
       </c>
       <c r="J8">
-        <v>0.05752545499915822</v>
+        <v>0.07230604650843346</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N8">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O8">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P8">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q8">
-        <v>2.116578329797</v>
+        <v>3.842774478164666</v>
       </c>
       <c r="R8">
-        <v>19.049204968173</v>
+        <v>34.584970303482</v>
       </c>
       <c r="S8">
-        <v>0.02844896860944979</v>
+        <v>0.05671761761559058</v>
       </c>
       <c r="T8">
-        <v>0.0284489686094498</v>
+        <v>0.05671761761559058</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.299658999999999</v>
+        <v>7.825717999999999</v>
       </c>
       <c r="H9">
-        <v>18.898977</v>
+        <v>23.477154</v>
       </c>
       <c r="I9">
-        <v>0.0575254549991582</v>
+        <v>0.07230604650843346</v>
       </c>
       <c r="J9">
-        <v>0.05752545499915822</v>
+        <v>0.07230604650843346</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N9">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O9">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P9">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q9">
-        <v>2.163265102646</v>
+        <v>1.05615890128</v>
       </c>
       <c r="R9">
-        <v>19.469385923814</v>
+        <v>9.505430111519999</v>
       </c>
       <c r="S9">
-        <v>0.02907648638970841</v>
+        <v>0.01558842889284288</v>
       </c>
       <c r="T9">
-        <v>0.02907648638970842</v>
+        <v>0.01558842889284288</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.037292333333333</v>
+        <v>0.8063476666666666</v>
       </c>
       <c r="H10">
-        <v>3.111877</v>
+        <v>2.419043</v>
       </c>
       <c r="I10">
-        <v>0.009472054509956567</v>
+        <v>0.007450282758459582</v>
       </c>
       <c r="J10">
-        <v>0.009472054509956569</v>
+        <v>0.007450282758459582</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N10">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O10">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P10">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q10">
-        <v>0.3485125900303333</v>
+        <v>0.3959524524132222</v>
       </c>
       <c r="R10">
-        <v>3.136613310273</v>
+        <v>3.563572071719</v>
       </c>
       <c r="S10">
-        <v>0.0046843641901606</v>
+        <v>0.005844079562185053</v>
       </c>
       <c r="T10">
-        <v>0.0046843641901606</v>
+        <v>0.005844079562185054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.037292333333333</v>
+        <v>0.8063476666666666</v>
       </c>
       <c r="H11">
-        <v>3.111877</v>
+        <v>2.419043</v>
       </c>
       <c r="I11">
-        <v>0.009472054509956567</v>
+        <v>0.007450282758459582</v>
       </c>
       <c r="J11">
-        <v>0.009472054509956569</v>
+        <v>0.007450282758459582</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N11">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O11">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P11">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q11">
-        <v>0.3561999635126666</v>
+        <v>0.1088246810933333</v>
       </c>
       <c r="R11">
-        <v>3.205799671613999</v>
+        <v>0.97942212984</v>
       </c>
       <c r="S11">
-        <v>0.004787690319795968</v>
+        <v>0.001606203196274528</v>
       </c>
       <c r="T11">
-        <v>0.004787690319795969</v>
+        <v>0.001606203196274528</v>
       </c>
     </row>
   </sheetData>
